--- a/记录每一天/freeCodeCamp-田泽玉.xlsx
+++ b/记录每一天/freeCodeCamp-田泽玉.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>日期</t>
   </si>
@@ -420,6 +420,10 @@
   </si>
   <si>
     <t>freeCodeCamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gift for Jay Zhou</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -991,7 +995,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
@@ -1073,7 +1077,7 @@
       </c>
       <c r="I5" s="11">
         <f>SUM(E8:E99)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1126,14 +1130,18 @@
       <c r="A8" s="13">
         <v>42291</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="C8" s="15">
         <v>2</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="15">
+        <v>6</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="19"/>
@@ -1150,7 +1158,9 @@
       <c r="D9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -1167,7 +1177,9 @@
       <c r="D10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>

--- a/记录每一天/freeCodeCamp-田泽玉.xlsx
+++ b/记录每一天/freeCodeCamp-田泽玉.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -424,6 +424,10 @@
   </si>
   <si>
     <t>Gift for Jay Zhou</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于野狗云的弹幕实现</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -995,7 +999,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
@@ -1077,7 +1081,7 @@
       </c>
       <c r="I5" s="11">
         <f>SUM(E8:E99)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1189,14 +1193,18 @@
       <c r="A11" s="13">
         <v>42294</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="C11" s="15">
         <v>2</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="15">
+        <v>6</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>

--- a/记录每一天/freeCodeCamp-田泽玉.xlsx
+++ b/记录每一天/freeCodeCamp-田泽玉.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -428,6 +428,22 @@
   </si>
   <si>
     <t>基于野狗云的弹幕实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>python</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>练习太少，投入时间不够</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -999,7 +1015,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
@@ -1081,7 +1097,7 @@
       </c>
       <c r="I5" s="11">
         <f>SUM(E8:E99)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1214,14 +1230,18 @@
       <c r="A12" s="13">
         <v>42295</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="C12" s="15">
         <v>2</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15">
+        <v>4</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
